--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -18535,7 +18535,7 @@
     <t>Al habilitar esta opción, la base de datos interna de la aplicación y los archivos adjuntos se moverán al directorio público de la aplicación (Android/media/com.philkes.notallyx). En combinación con aplicaciones de sincronización de archivos, esta opción se puede utilizar para sincronizar datos de NotallyX entre varios dispositivos.</t>
   </si>
   <si>
-    <t>En activant cette option, la base de données interne de l'application et les fichiers joints seront déplacés dans le dossier public de l\'application (Android/media/com.philkes.notallyx). En combinaison avec des applications de synchronisation de fichiers, cela peut être utilisé pour synchroniser les données de NotallyX entre plusieurs appareils.</t>
+    <t>En activant cette option, la base de données interne de l'application et les fichiers joints seront déplacés dans le dossier public de l'application (Android/media/com.philkes.notallyx). En combinaison avec des applications de synchronisation de fichiers, cela peut être utilisé pour synchroniser les données de NotallyX entre plusieurs appareils.</t>
   </si>
   <si>
     <t>Attivandolo, il database interno dell’app e i file allegati verranno spostati nella cartella pubblica dell’app (Android/media/com.philkes.notallyx). Abbinandolo con un’app di sincronizzazione file potrai così sincronizzare i dati di NotallyX tra dispositivi diversi.</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -23601,28 +23601,28 @@
     <t>Duplicate</t>
   </si>
   <si>
-    <t>duplicated_notes_PLURALS_few</t>
-  </si>
-  <si>
-    <t>duplicated_notes_PLURALS_many</t>
-  </si>
-  <si>
-    <t>duplicated_notes_PLURALS_one</t>
-  </si>
-  <si>
-    <t>Duplicated %1$d note</t>
-  </si>
-  <si>
-    <t>duplicated_notes_PLURALS_other</t>
-  </si>
-  <si>
-    <t>Duplicated %1$d notes</t>
-  </si>
-  <si>
-    <t>duplicated_notes_PLURALS_two</t>
-  </si>
-  <si>
-    <t>duplicated_notes_PLURALS_zero</t>
+    <t>duplicates_PLURALS_few</t>
+  </si>
+  <si>
+    <t>duplicates_PLURALS_many</t>
+  </si>
+  <si>
+    <t>duplicates_PLURALS_one</t>
+  </si>
+  <si>
+    <t>%1$d duplicate</t>
+  </si>
+  <si>
+    <t>duplicates_PLURALS_other</t>
+  </si>
+  <si>
+    <t>%1$d duplicates</t>
+  </si>
+  <si>
+    <t>duplicates_PLURALS_two</t>
+  </si>
+  <si>
+    <t>duplicates_PLURALS_zero</t>
   </si>
   <si>
     <t>edit</t>
